--- a/proto-BOM.xlsx
+++ b/proto-BOM.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
